--- a/csv/nn/nn_pc15_init.xlsx
+++ b/csv/nn/nn_pc15_init.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>size</t>
   </si>
@@ -29,259 +29,259 @@
     <t>sd</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>84</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
   </si>
   <si>
     <t>85</t>
@@ -373,16 +373,50 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18055555555555555</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04890782461571947</v>
+        <v>0.05196746370519363</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.05485671571703194</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05196746370519363</v>
       </c>
     </row>
   </sheetData>
@@ -415,19 +449,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18055555555555555</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04890782461571947</v>
+        <v>0.05196746370519363</v>
       </c>
     </row>
   </sheetData>
@@ -446,15 +480,31 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.18055555555555555</v>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.20833333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -487,7 +537,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -499,12 +549,12 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.029133579115837555</v>
+        <v>0.05196746370519365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>2.0</v>
@@ -513,15 +563,15 @@
         <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11520245196293177</v>
+        <v>0.051719407569514604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>3.0</v>
@@ -530,15 +580,15 @@
         <v>0.01</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4398148148148148</v>
+        <v>0.39814814814814814</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05670115145331431</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>4.0</v>
@@ -547,15 +597,15 @@
         <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05826715823167509</v>
+        <v>0.04864416865393962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
@@ -564,15 +614,15 @@
         <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3101851851851852</v>
+        <v>0.3287037037037037</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08681018506173498</v>
+        <v>0.09528493116435507</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>6.0</v>
@@ -581,15 +631,15 @@
         <v>0.01</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33796296296296297</v>
+        <v>0.3935185185185185</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08130241266116738</v>
+        <v>0.07331789961047834</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>7.0</v>
@@ -601,12 +651,12 @@
         <v>0.27314814814814814</v>
       </c>
       <c r="E8" t="n">
-        <v>0.10155681172737972</v>
+        <v>0.05391083936299866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>8.0</v>
@@ -615,15 +665,15 @@
         <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.3287037037037037</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0940624081422244</v>
+        <v>0.06897992789699695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>9.0</v>
@@ -632,15 +682,15 @@
         <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3101851851851852</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0643501864959039</v>
+        <v>0.0573775310549247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
@@ -649,15 +699,15 @@
         <v>0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>0.28240740740740744</v>
+        <v>0.26851851851851855</v>
       </c>
       <c r="E11" t="n">
-        <v>0.10746326772188264</v>
+        <v>0.09240722185092333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>15.0</v>
@@ -666,15 +716,15 @@
         <v>0.01</v>
       </c>
       <c r="D12" t="n">
-        <v>0.28703703703703703</v>
+        <v>0.28240740740740744</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07384222976806254</v>
+        <v>0.04088778178855485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>20.0</v>
@@ -683,15 +733,15 @@
         <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3287037037037037</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07938161203464003</v>
+        <v>0.05555555555555557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>25.0</v>
@@ -700,15 +750,15 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07027283689263064</v>
+        <v>0.07331789961047834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>1.0</v>
@@ -717,15 +767,15 @@
         <v>0.05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6203703703703703</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09728833730787924</v>
+        <v>0.07401618108041236</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>2.0</v>
@@ -734,15 +784,15 @@
         <v>0.05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4351851851851852</v>
+        <v>0.49074074074074076</v>
       </c>
       <c r="E16" t="n">
-        <v>0.10492011462381698</v>
+        <v>0.04864416865393962</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
         <v>3.0</v>
@@ -751,15 +801,15 @@
         <v>0.05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.375</v>
+        <v>0.4351851851851852</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09582326839255745</v>
+        <v>0.1466357992209567</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
         <v>4.0</v>
@@ -768,15 +818,15 @@
         <v>0.05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3101851851851852</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07938161203464003</v>
+        <v>0.10829771494232182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="n">
         <v>5.0</v>
@@ -785,15 +835,15 @@
         <v>0.05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32407407407407407</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>0.13907395078161916</v>
+        <v>0.057601225981465894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
         <v>6.0</v>
@@ -802,15 +852,15 @@
         <v>0.05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.33796296296296297</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07539334439193439</v>
+        <v>0.05555555555555556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
         <v>7.0</v>
@@ -819,15 +869,15 @@
         <v>0.05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.30092592592592593</v>
+        <v>0.3194444444444445</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07741316654103142</v>
+        <v>0.10356306601281805</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="n">
         <v>8.0</v>
@@ -836,15 +886,15 @@
         <v>0.05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.28240740740740744</v>
+        <v>0.30092592592592593</v>
       </c>
       <c r="E22" t="n">
-        <v>0.047844484010236346</v>
+        <v>0.06190560981646955</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n">
         <v>9.0</v>
@@ -853,15 +903,15 @@
         <v>0.05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.33796296296296297</v>
+        <v>0.27314814814814814</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04784448401023634</v>
+        <v>0.040887781788554865</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
         <v>10.0</v>
@@ -870,15 +920,15 @@
         <v>0.05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.24074074074074076</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09568896802047269</v>
+        <v>0.07027283689263066</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="n">
         <v>15.0</v>
@@ -887,15 +937,15 @@
         <v>0.05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E25" t="n">
-        <v>0.10540925533894598</v>
+        <v>0.057601225981465894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
         <v>20.0</v>
@@ -904,15 +954,15 @@
         <v>0.05</v>
       </c>
       <c r="D26" t="n">
-        <v>0.19907407407407407</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07118196701400951</v>
+        <v>0.052704627669472995</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="n">
         <v>25.0</v>
@@ -921,15 +971,15 @@
         <v>0.05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07331789961047835</v>
+        <v>0.07938161203464003</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" t="n">
         <v>1.0</v>
@@ -938,7 +988,7 @@
         <v>0.1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6898148148148148</v>
+        <v>0.6712962962962963</v>
       </c>
       <c r="E28" t="n">
         <v>0.0711819670140095</v>
@@ -946,7 +996,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
         <v>2.0</v>
@@ -955,15 +1005,15 @@
         <v>0.1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.47685185185185186</v>
       </c>
       <c r="E29" t="n">
-        <v>0.11785113019775793</v>
+        <v>0.06897992789699695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" t="n">
         <v>3.0</v>
@@ -975,12 +1025,12 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06252571487457084</v>
+        <v>0.05171940756951459</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" t="n">
         <v>4.0</v>
@@ -989,15 +1039,15 @@
         <v>0.1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.32407407407407407</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1034388151390292</v>
+        <v>0.09886183566695658</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" t="n">
         <v>5.0</v>
@@ -1006,15 +1056,15 @@
         <v>0.1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.28240740740740744</v>
       </c>
       <c r="E32" t="n">
-        <v>0.129992877297751</v>
+        <v>0.10002571685782517</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" t="n">
         <v>6.0</v>
@@ -1023,15 +1073,15 @@
         <v>0.1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.28703703703703703</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06728111897994427</v>
+        <v>0.10041067934611822</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" t="n">
         <v>7.0</v>
@@ -1040,15 +1090,15 @@
         <v>0.1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.30092592592592593</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1342752225503518</v>
+        <v>0.04536092116265146</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" t="n">
         <v>8.0</v>
@@ -1057,15 +1107,15 @@
         <v>0.1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0956889680204727</v>
+        <v>0.08002700161604408</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" t="n">
         <v>9.0</v>
@@ -1074,15 +1124,15 @@
         <v>0.1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08193267335418125</v>
+        <v>0.04182070292828229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B37" t="n">
         <v>10.0</v>
@@ -1091,15 +1141,15 @@
         <v>0.1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08857002995235644</v>
+        <v>0.05196746370519363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
         <v>15.0</v>
@@ -1108,15 +1158,15 @@
         <v>0.1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.26851851851851855</v>
       </c>
       <c r="E38" t="n">
-        <v>0.059360446017868926</v>
+        <v>0.07384222976806255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="n">
         <v>20.0</v>
@@ -1125,15 +1175,15 @@
         <v>0.1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.27314814814814814</v>
       </c>
       <c r="E39" t="n">
-        <v>0.09072184232530289</v>
+        <v>0.0643501864959039</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="n">
         <v>25.0</v>
@@ -1142,15 +1192,15 @@
         <v>0.1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09528493116435507</v>
+        <v>0.08002700161604409</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="n">
         <v>1.0</v>
@@ -1159,15 +1209,15 @@
         <v>0.25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7129629629629629</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03795166950355409</v>
+        <v>0.02868876552746236</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="n">
         <v>2.0</v>
@@ -1176,15 +1226,15 @@
         <v>0.25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4398148148148148</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07331789961047834</v>
+        <v>0.05462178223612086</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="n">
         <v>3.0</v>
@@ -1193,15 +1243,15 @@
         <v>0.25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.30092592592592593</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="E43" t="n">
-        <v>0.11029795038930824</v>
+        <v>0.04536092116265144</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
         <v>4.0</v>
@@ -1210,15 +1260,15 @@
         <v>0.25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E44" t="n">
-        <v>0.11111111111111112</v>
+        <v>0.06897992789699695</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="n">
         <v>5.0</v>
@@ -1227,15 +1277,15 @@
         <v>0.25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E45" t="n">
-        <v>0.06252571487457087</v>
+        <v>0.061905609816469545</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="n">
         <v>6.0</v>
@@ -1244,15 +1294,15 @@
         <v>0.25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E46" t="n">
-        <v>0.11111111111111112</v>
+        <v>0.03795166950355408</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="n">
         <v>7.0</v>
@@ -1261,15 +1311,15 @@
         <v>0.25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.26851851851851855</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07790994062208383</v>
+        <v>0.09582326839255745</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="n">
         <v>8.0</v>
@@ -1278,15 +1328,15 @@
         <v>0.25</v>
       </c>
       <c r="D48" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06897992789699695</v>
+        <v>0.07401618108041237</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="n">
         <v>9.0</v>
@@ -1295,15 +1345,15 @@
         <v>0.25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E49" t="n">
-        <v>0.07243558228002944</v>
+        <v>0.0643501864959039</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B50" t="n">
         <v>10.0</v>
@@ -1312,10 +1362,10 @@
         <v>0.25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.27314814814814814</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E50" t="n">
-        <v>0.06670523575676991</v>
+        <v>0.05485671571703194</v>
       </c>
     </row>
     <row r="51">
@@ -1329,10 +1379,10 @@
         <v>0.25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0600068583185913</v>
+        <v>0.05760122598146591</v>
       </c>
     </row>
     <row r="52">
@@ -1346,10 +1396,10 @@
         <v>0.25</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06273105439242342</v>
+        <v>0.07856742013183862</v>
       </c>
     </row>
     <row r="53">
@@ -1363,10 +1413,10 @@
         <v>0.25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09240722185092333</v>
+        <v>0.06085806194501846</v>
       </c>
     </row>
     <row r="54">
@@ -1380,10 +1430,10 @@
         <v>0.5</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.6990740740740741</v>
       </c>
       <c r="E54" t="n">
-        <v>0.02324055629261322</v>
+        <v>0.03247347762361146</v>
       </c>
     </row>
     <row r="55">
@@ -1397,10 +1447,10 @@
         <v>0.5</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E55" t="n">
-        <v>0.04303314829119354</v>
+        <v>0.10243938285880988</v>
       </c>
     </row>
     <row r="56">
@@ -1414,10 +1464,10 @@
         <v>0.5</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.26851851851851855</v>
       </c>
       <c r="E56" t="n">
-        <v>0.11340230290662863</v>
+        <v>0.07172191381865586</v>
       </c>
     </row>
     <row r="57">
@@ -1431,10 +1481,10 @@
         <v>0.5</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2824074074074074</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E57" t="n">
-        <v>0.11306158415084935</v>
+        <v>0.056701151453314315</v>
       </c>
     </row>
     <row r="58">
@@ -1448,10 +1498,10 @@
         <v>0.5</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E58" t="n">
-        <v>0.12597357486308788</v>
+        <v>0.09254628471643157</v>
       </c>
     </row>
     <row r="59">
@@ -1465,10 +1515,10 @@
         <v>0.5</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06897992789699695</v>
+        <v>0.04784448401023635</v>
       </c>
     </row>
     <row r="60">
@@ -1482,10 +1532,10 @@
         <v>0.5</v>
       </c>
       <c r="D60" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E60" t="n">
-        <v>0.04536092116265145</v>
+        <v>0.061905609816469545</v>
       </c>
     </row>
     <row r="61">
@@ -1499,10 +1549,10 @@
         <v>0.5</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24074074074074073</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07790994062208381</v>
+        <v>0.04088778178855485</v>
       </c>
     </row>
     <row r="62">
@@ -1516,10 +1566,10 @@
         <v>0.5</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07856742013183861</v>
+        <v>0.05462178223612083</v>
       </c>
     </row>
     <row r="63">
@@ -1533,15 +1583,15 @@
         <v>0.5</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.25</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05391083936299867</v>
+        <v>0.04969039949999532</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B64" t="n">
         <v>15.0</v>
@@ -1550,15 +1600,15 @@
         <v>0.5</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2175925925925926</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E64" t="n">
-        <v>0.08501391800842985</v>
+        <v>0.05196746370519363</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n">
         <v>20.0</v>
@@ -1567,15 +1617,15 @@
         <v>0.5</v>
       </c>
       <c r="D65" t="n">
-        <v>0.22685185185185183</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E65" t="n">
-        <v>0.10746326772188262</v>
+        <v>0.027310891118060416</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n">
         <v>25.0</v>
@@ -1584,15 +1634,15 @@
         <v>0.5</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E66" t="n">
-        <v>0.10002571685782517</v>
+        <v>0.05196746370519364</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n">
         <v>1.0</v>
@@ -1601,15 +1651,15 @@
         <v>0.75</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6898148148148148</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="E67" t="n">
-        <v>0.03247347762361146</v>
+        <v>0.04864416865393964</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n">
         <v>2.0</v>
@@ -1618,15 +1668,15 @@
         <v>0.75</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09296222517045284</v>
+        <v>0.0779099406220838</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n">
         <v>3.0</v>
@@ -1635,15 +1685,15 @@
         <v>0.75</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3101851851851852</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E69" t="n">
-        <v>0.08130241266116736</v>
+        <v>0.045360921162651446</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n">
         <v>4.0</v>
@@ -1652,15 +1702,15 @@
         <v>0.75</v>
       </c>
       <c r="D70" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.28240740740740744</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09072184232530289</v>
+        <v>0.03692111488403127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n">
         <v>5.0</v>
@@ -1669,15 +1719,15 @@
         <v>0.75</v>
       </c>
       <c r="D71" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.25</v>
       </c>
       <c r="E71" t="n">
-        <v>0.10746326772188264</v>
+        <v>0.030429030972509232</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n">
         <v>6.0</v>
@@ -1686,15 +1736,15 @@
         <v>0.75</v>
       </c>
       <c r="D72" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06897992789699693</v>
+        <v>0.05196746370519363</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n">
         <v>7.0</v>
@@ -1703,15 +1753,15 @@
         <v>0.75</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.26851851851851855</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0837950173833242</v>
+        <v>0.0695369753908096</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n">
         <v>8.0</v>
@@ -1720,15 +1770,15 @@
         <v>0.75</v>
       </c>
       <c r="D74" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E74" t="n">
-        <v>0.10002571685782517</v>
+        <v>0.04784448401023635</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n">
         <v>9.0</v>
@@ -1737,15 +1787,15 @@
         <v>0.75</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06085806194501846</v>
+        <v>0.037951669503554074</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n">
         <v>10.0</v>
@@ -1754,15 +1804,15 @@
         <v>0.75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.20370370370370372</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07590333900710815</v>
+        <v>0.07243558228002943</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n">
         <v>15.0</v>
@@ -1771,15 +1821,15 @@
         <v>0.75</v>
       </c>
       <c r="D77" t="n">
-        <v>0.20833333333333331</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0908634846322007</v>
+        <v>0.028688765527462353</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n">
         <v>20.0</v>
@@ -1788,15 +1838,15 @@
         <v>0.75</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E78" t="n">
-        <v>0.10092167846991638</v>
+        <v>0.05196746370519364</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n">
         <v>25.0</v>
@@ -1805,15 +1855,15 @@
         <v>0.75</v>
       </c>
       <c r="D79" t="n">
-        <v>0.20833333333333334</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E79" t="n">
-        <v>0.10356306601281805</v>
+        <v>0.057601225981465894</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n">
         <v>1.0</v>
@@ -1822,15 +1872,15 @@
         <v>1.0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6990740740740741</v>
+        <v>0.7361111111111112</v>
       </c>
       <c r="E80" t="n">
-        <v>0.040887781788554865</v>
+        <v>0.04212708580028641</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -1839,15 +1889,15 @@
         <v>1.0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E81" t="n">
-        <v>0.07657804862272348</v>
+        <v>0.03928371006591931</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n">
         <v>3.0</v>
@@ -1856,15 +1906,15 @@
         <v>1.0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06334307917217434</v>
+        <v>0.06747198778606177</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n">
         <v>4.0</v>
@@ -1873,15 +1923,15 @@
         <v>1.0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E83" t="n">
-        <v>0.07384222976806255</v>
+        <v>0.0643501864959039</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n">
         <v>5.0</v>
@@ -1890,15 +1940,15 @@
         <v>1.0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="E84" t="n">
-        <v>0.09742043287083434</v>
+        <v>0.06494695524722291</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n">
         <v>6.0</v>
@@ -1907,10 +1957,10 @@
         <v>1.0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.18055555555555555</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="E85" t="n">
-        <v>0.04890782461571947</v>
+        <v>0.057377531054924685</v>
       </c>
     </row>
     <row r="86">
@@ -1924,10 +1974,10 @@
         <v>1.0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.25</v>
+        <v>0.26851851851851855</v>
       </c>
       <c r="E86" t="n">
-        <v>0.07243558228002944</v>
+        <v>0.0517194075695146</v>
       </c>
     </row>
     <row r="87">
@@ -1941,10 +1991,10 @@
         <v>1.0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E87" t="n">
-        <v>0.08425417160057279</v>
+        <v>0.04536092116265145</v>
       </c>
     </row>
     <row r="88">
@@ -1958,10 +2008,10 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E88" t="n">
-        <v>0.11609205939746281</v>
+        <v>0.08240220541217404</v>
       </c>
     </row>
     <row r="89">
@@ -1975,10 +2025,10 @@
         <v>1.0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2175925925925926</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E89" t="n">
-        <v>0.12097426859688568</v>
+        <v>0.040887781788554844</v>
       </c>
     </row>
     <row r="90">
@@ -1992,10 +2042,10 @@
         <v>1.0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E90" t="n">
-        <v>0.09728833730787924</v>
+        <v>0.04784448401023635</v>
       </c>
     </row>
     <row r="91">
@@ -2009,10 +2059,10 @@
         <v>1.0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07384222976806254</v>
+        <v>0.05462178223612083</v>
       </c>
     </row>
     <row r="92">
@@ -2026,10 +2076,10 @@
         <v>1.0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2175925925925926</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0968909700761868</v>
+        <v>0.04450227718777007</v>
       </c>
     </row>
   </sheetData>
